--- a/carezoom_frontend/entries.xlsx
+++ b/carezoom_frontend/entries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinabear/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinabear/carezoom_frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,9 @@
     <t>setup</t>
   </si>
   <si>
+    <t>BMC Hepatitis C</t>
+  </si>
+  <si>
     <t>Implemented a financial incentive program to improve appointment attendance at a safety-net hospital-based primary care hepatitis C treatment program.</t>
   </si>
   <si>
@@ -84,15 +87,6 @@
   </si>
   <si>
     <t>filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25K Community Hospital Urban MD/DO </t>
-  </si>
-  <si>
-    <t>BMC Hepatitis C christina</t>
-  </si>
-  <si>
-    <t>new intervention</t>
   </si>
 </sst>
 </file>
@@ -410,13 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="68.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -432,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -456,47 +453,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
